--- a/my_douban_data/用200本书构建知识体系.xlsx
+++ b/my_douban_data/用200本书构建知识体系.xlsx
@@ -355,9 +355,6 @@
     <t>男人来自火星，女人来自金星： 修炼亲密关系的方法</t>
   </si>
   <si>
-    <t>爱的博弈： 建立信任、避免背叛与不忠</t>
-  </si>
-  <si>
     <t>技术的本质： 技术是什么，它是如何进化的</t>
   </si>
   <si>
@@ -898,9 +895,6 @@
     <t>（英）尼克·莱恩著，张博然译，科学出版社，2018.6</t>
   </si>
   <si>
-    <t>（美）詹姆斯·沃森著，贾拥民译，浙江人民出版社，2017.1</t>
-  </si>
-  <si>
     <t>（美）悉达多·穆克吉著，马向涛译，中信出版社，2018.1</t>
   </si>
   <si>
@@ -1484,9 +1478,6 @@
   </si>
   <si>
     <t>https://book.douban.com/subject/26679862/</t>
-  </si>
-  <si>
-    <t>https://book.douban.com/subject/1803961/</t>
   </si>
   <si>
     <t>https://book.douban.com/subject/27168433/</t>
@@ -2281,6 +2272,18 @@
   </si>
   <si>
     <t>黑客与画家: 硅谷创业之父Paul Graham文集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://book.douban.com/subject/26752488/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（美）詹姆斯·沃森著，刘望夷译，上海译文出版社，2016.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱的博弈： 建立信任、避免背叛与不忠</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2669,8 +2672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2710,16 +2714,16 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15">
@@ -2730,16 +2734,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
@@ -2750,13 +2754,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
@@ -2767,13 +2771,13 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
@@ -2784,13 +2788,13 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
@@ -2801,13 +2805,13 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
@@ -2818,13 +2822,13 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F8" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -2835,13 +2839,13 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
@@ -2852,10 +2856,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -2869,10 +2873,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2886,10 +2890,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -2903,10 +2907,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -2920,13 +2924,13 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -2940,13 +2944,13 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
@@ -2957,13 +2961,13 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
@@ -2974,13 +2978,13 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F17" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
@@ -2991,13 +2995,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15">
@@ -3008,13 +3012,13 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F19" t="s">
         <v>31</v>
@@ -3028,13 +3032,13 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F20" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
@@ -3045,13 +3049,13 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F21" t="s">
         <v>33</v>
@@ -3065,16 +3069,16 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F22" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
@@ -3085,16 +3089,16 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F23" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15">
@@ -3105,13 +3109,13 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F24" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15">
@@ -3122,16 +3126,16 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15">
@@ -3142,16 +3146,16 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F26" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15">
@@ -3162,10 +3166,10 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -3179,10 +3183,10 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F28" t="s">
         <v>40</v>
@@ -3196,13 +3200,13 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F29" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15">
@@ -3213,13 +3217,13 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F30" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15">
@@ -3230,13 +3234,13 @@
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F31" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15">
@@ -3247,10 +3251,10 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -3264,13 +3268,13 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F33" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15">
@@ -3281,16 +3285,16 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F34" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15">
@@ -3301,16 +3305,16 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F35" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15">
@@ -3321,13 +3325,13 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F36" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15">
@@ -3338,13 +3342,13 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F37" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15">
@@ -3355,13 +3359,13 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F38" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15">
@@ -3372,13 +3376,13 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F39" t="s">
         <v>51</v>
@@ -3392,13 +3396,13 @@
         <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F40" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15">
@@ -3409,13 +3413,13 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
@@ -3429,10 +3433,10 @@
         <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F42" t="s">
         <v>54</v>
@@ -3446,13 +3450,13 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F43" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15">
@@ -3463,13 +3467,13 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F44" t="s">
         <v>56</v>
@@ -3483,16 +3487,16 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F45" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15">
@@ -3503,16 +3507,16 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F46" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15">
@@ -3523,13 +3527,13 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F47" t="s">
         <v>59</v>
@@ -3543,13 +3547,13 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F48" t="s">
         <v>60</v>
@@ -3563,10 +3567,10 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F49" t="s">
         <v>61</v>
@@ -3580,10 +3584,10 @@
         <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F50" t="s">
         <v>62</v>
@@ -3597,13 +3601,13 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F51" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15">
@@ -3614,10 +3618,10 @@
         <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F52" t="s">
         <v>64</v>
@@ -3631,10 +3635,10 @@
         <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F53" t="s">
         <v>65</v>
@@ -3648,13 +3652,13 @@
         <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F54" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15">
@@ -3665,13 +3669,13 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F55" t="s">
         <v>67</v>
@@ -3685,13 +3689,13 @@
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F56" t="s">
         <v>68</v>
@@ -3705,16 +3709,16 @@
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F57" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15">
@@ -3725,16 +3729,16 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F58" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15">
@@ -3745,16 +3749,16 @@
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F59" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15">
@@ -3765,13 +3769,13 @@
         <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F60" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15">
@@ -3782,13 +3786,13 @@
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F61" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15">
@@ -3799,16 +3803,16 @@
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F62" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15">
@@ -3819,13 +3823,13 @@
         <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F63" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15">
@@ -3836,13 +3840,13 @@
         <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F64" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15">
@@ -3853,13 +3857,13 @@
         <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F65" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15">
@@ -3870,13 +3874,13 @@
         <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F66" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15">
@@ -3887,13 +3891,13 @@
         <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F67" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15">
@@ -3904,16 +3908,16 @@
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F68" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15">
@@ -3924,16 +3928,16 @@
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F69" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15">
@@ -3944,16 +3948,16 @@
         <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F70" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15">
@@ -3964,10 +3968,10 @@
         <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F71" t="s">
         <v>83</v>
@@ -3981,10 +3985,10 @@
         <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F72" t="s">
         <v>84</v>
@@ -3998,13 +4002,13 @@
         <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F73" t="s">
         <v>85</v>
@@ -4018,10 +4022,10 @@
         <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F74" t="s">
         <v>86</v>
@@ -4035,10 +4039,10 @@
         <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F75" t="s">
         <v>87</v>
@@ -4052,13 +4056,13 @@
         <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F76" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15">
@@ -4069,10 +4073,10 @@
         <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F77" t="s">
         <v>89</v>
@@ -4086,16 +4090,16 @@
         <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F78" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15">
@@ -4106,13 +4110,13 @@
         <v>91</v>
       </c>
       <c r="D79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F79" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15">
@@ -4123,16 +4127,16 @@
         <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>294</v>
+        <v>748</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>490</v>
+        <v>747</v>
       </c>
       <c r="F80" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15">
@@ -4143,13 +4147,13 @@
         <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F81" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15">
@@ -4160,13 +4164,13 @@
         <v>94</v>
       </c>
       <c r="D82" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F82" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15">
@@ -4177,16 +4181,16 @@
         <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F83" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15">
@@ -4197,16 +4201,16 @@
         <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F84" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15">
@@ -4217,16 +4221,16 @@
         <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D85" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F85" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15">
@@ -4237,13 +4241,13 @@
         <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F86" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15">
@@ -4254,16 +4258,16 @@
         <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F87" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15">
@@ -4274,13 +4278,13 @@
         <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F88" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15">
@@ -4291,16 +4295,16 @@
         <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D89" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F89" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15">
@@ -4311,16 +4315,16 @@
         <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F90" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15">
@@ -4331,13 +4335,13 @@
         <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D91" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F91" t="s">
         <v>103</v>
@@ -4351,13 +4355,13 @@
         <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F92" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15">
@@ -4368,16 +4372,16 @@
         <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D93" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F93" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15">
@@ -4388,16 +4392,16 @@
         <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F94" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15">
@@ -4408,13 +4412,13 @@
         <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F95" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15">
@@ -4425,13 +4429,13 @@
         <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F96" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15">
@@ -4442,10 +4446,10 @@
         <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F97" t="s">
         <v>109</v>
@@ -4459,16 +4463,16 @@
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F98" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15">
@@ -4479,13 +4483,13 @@
         <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D99" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F99" t="s">
         <v>111</v>
@@ -4499,16 +4503,16 @@
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F100" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15">
@@ -4516,16 +4520,16 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>749</v>
       </c>
       <c r="D101" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F101" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15">
@@ -4533,19 +4537,19 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D102" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F102" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15">
@@ -4553,19 +4557,19 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15">
@@ -4573,16 +4577,16 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D104" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F104" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15">
@@ -4590,16 +4594,16 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D105" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F105" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15">
@@ -4607,16 +4611,16 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D106" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F106" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15">
@@ -4624,19 +4628,19 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D107" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F107" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15">
@@ -4644,16 +4648,16 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D108" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F108" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15">
@@ -4661,19 +4665,19 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D109" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F109" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15">
@@ -4681,16 +4685,16 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D110" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F110" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15">
@@ -4698,16 +4702,16 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D111" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F111" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15">
@@ -4715,19 +4719,19 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D112" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F112" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15">
@@ -4735,19 +4739,19 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D113" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F113" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15">
@@ -4755,19 +4759,19 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D114" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F114" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15">
@@ -4775,16 +4779,16 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D115" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F115" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15">
@@ -4792,16 +4796,16 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D116" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F116" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15">
@@ -4809,16 +4813,16 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D117" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F117" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15">
@@ -4826,19 +4830,19 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F118" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15">
@@ -4846,16 +4850,16 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D119" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F119" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15">
@@ -4863,16 +4867,16 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D120" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F120" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15">
@@ -4880,19 +4884,19 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D121" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15">
@@ -4900,19 +4904,19 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D122" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="F122" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15">
@@ -4920,19 +4924,19 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D123" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F123" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15">
@@ -4940,19 +4944,19 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D124" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F124" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15">
@@ -4960,16 +4964,16 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F125" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15">
@@ -4977,16 +4981,16 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F126" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15">
@@ -4994,19 +4998,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C127" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D127" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F127" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15">
@@ -5014,16 +5018,16 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F128" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15">
@@ -5031,19 +5035,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D129" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F129" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15">
@@ -5051,19 +5055,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D130" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F130" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15">
@@ -5071,19 +5075,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D131" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F131" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15">
@@ -5091,16 +5095,16 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15">
@@ -5108,16 +5112,16 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15">
@@ -5125,19 +5129,19 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C134" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D134" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F134" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15">
@@ -5145,16 +5149,16 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D135" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15">
@@ -5162,19 +5166,19 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C136" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D136" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F136" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15">
@@ -5182,19 +5186,19 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D137" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F137" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15">
@@ -5202,19 +5206,19 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C138" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D138" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F138" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15">
@@ -5222,19 +5226,19 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C139" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D139" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F139" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15">
@@ -5242,16 +5246,16 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F140" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15">
@@ -5259,16 +5263,16 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F141" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15">
@@ -5276,19 +5280,19 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D142" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F142" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15">
@@ -5296,19 +5300,19 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D143" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F143" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15">
@@ -5316,19 +5320,19 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C144" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D144" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15">
@@ -5336,16 +5340,16 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F145" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15">
@@ -5353,16 +5357,16 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F146" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15">
@@ -5370,19 +5374,19 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C147" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D147" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15">
@@ -5390,16 +5394,16 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F148" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15">
@@ -5407,16 +5411,16 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F149" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15">
@@ -5424,16 +5428,16 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F150" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15">
@@ -5441,19 +5445,19 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C151" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D151" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F151" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15">
@@ -5461,16 +5465,16 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D152" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15">
@@ -5478,16 +5482,16 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F153" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15">
@@ -5495,16 +5499,16 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D154" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F154" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15">
@@ -5512,19 +5516,19 @@
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D155" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F155" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15">
@@ -5532,16 +5536,16 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D156" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F156" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15">
@@ -5549,16 +5553,16 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F157" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15">
@@ -5566,16 +5570,16 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15">
@@ -5583,16 +5587,16 @@
         <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D159" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F159" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15">
@@ -5600,16 +5604,16 @@
         <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15">
@@ -5617,19 +5621,19 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C161" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D161" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F161" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15">
@@ -5637,19 +5641,19 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C162" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D162" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F162" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15">
@@ -5657,19 +5661,19 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C163" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D163" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F163" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15">
@@ -5677,16 +5681,16 @@
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D164" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15">
@@ -5694,19 +5698,19 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C165" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D165" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F165" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15">
@@ -5714,16 +5718,16 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D166" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F166" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15">
@@ -5731,19 +5735,19 @@
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C167" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D167" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F167" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15">
@@ -5751,16 +5755,16 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D168" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F168" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15">
@@ -5768,16 +5772,16 @@
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D169" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F169" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15">
@@ -5785,16 +5789,16 @@
         <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D170" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F170" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15">
@@ -5802,19 +5806,19 @@
         <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C171" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D171" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F171" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15">
@@ -5822,16 +5826,16 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D172" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15">
@@ -5839,19 +5843,19 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C173" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D173" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15">
@@ -5859,16 +5863,16 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D174" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F174" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15">
@@ -5876,16 +5880,16 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D175" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F175" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15">
@@ -5893,19 +5897,19 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C176" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D176" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F176" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15">
@@ -5913,16 +5917,16 @@
         <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D177" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F177" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15">
@@ -5930,16 +5934,16 @@
         <v>13</v>
       </c>
       <c r="B178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D178" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15">
@@ -5947,16 +5951,16 @@
         <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D179" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F179" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15">
@@ -5964,19 +5968,19 @@
         <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C180" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D180" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15">
@@ -5984,19 +5988,19 @@
         <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C181" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D181" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F181" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15">
@@ -6004,19 +6008,19 @@
         <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C182" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D182" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F182" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15">
@@ -6024,19 +6028,19 @@
         <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C183" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D183" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F183" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15">
@@ -6044,19 +6048,19 @@
         <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C184" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D184" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F184" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15">
@@ -6064,16 +6068,16 @@
         <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D185" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F185" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15">
@@ -6081,16 +6085,16 @@
         <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D186" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F186" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15">
@@ -6098,16 +6102,16 @@
         <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D187" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F187" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15">
@@ -6115,16 +6119,16 @@
         <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D188" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F188" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15">
@@ -6132,16 +6136,16 @@
         <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D189" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F189" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15">
@@ -6149,16 +6153,16 @@
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D190" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F190" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15">
@@ -6166,16 +6170,16 @@
         <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D191" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F191" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15">
@@ -6183,16 +6187,16 @@
         <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D192" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F192" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="15">
@@ -6200,16 +6204,16 @@
         <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D193" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F193" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15">
@@ -6217,16 +6221,16 @@
         <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D194" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15">
@@ -6234,19 +6238,19 @@
         <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C195" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D195" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15">
@@ -6254,19 +6258,19 @@
         <v>13</v>
       </c>
       <c r="B196" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D196" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F196" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="15">
@@ -6274,19 +6278,19 @@
         <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C197" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D197" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F197" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15">
@@ -6294,19 +6298,19 @@
         <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C198" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D198" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F198" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15">
@@ -6314,19 +6318,19 @@
         <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C199" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D199" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F199" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15">
@@ -6334,16 +6338,16 @@
         <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D200" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F200" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15">
@@ -6351,19 +6355,19 @@
         <v>13</v>
       </c>
       <c r="B201" t="s">
+        <v>210</v>
+      </c>
+      <c r="C201" t="s">
         <v>211</v>
       </c>
-      <c r="C201" t="s">
-        <v>212</v>
-      </c>
       <c r="D201" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F201" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
